--- a/development/features/nipa-consistent-FIM/results/12-2020/data/no-addons/nipa_fim_interactive_noaddons.xlsx
+++ b/development/features/nipa-consistent-FIM/results/12-2020/data/no-addons/nipa_fim_interactive_noaddons.xlsx
@@ -422,16 +422,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-0.04932278832823928</v>
+        <v>-0.04932278832823922</v>
       </c>
       <c r="F2">
-        <v>-0.4469858474916455</v>
+        <v>-0.4469858474916464</v>
       </c>
       <c r="G2">
-        <v>0.337709939526763</v>
+        <v>0.2802248848709668</v>
       </c>
       <c r="H2">
-        <v>0.0325514381029768</v>
+        <v>0.09003649275877301</v>
       </c>
       <c r="I2">
         <v>-0.419584165957979</v>
@@ -458,13 +458,13 @@
         <v>-1.889666396925633</v>
       </c>
       <c r="F3">
-        <v>-0.7463849117283132</v>
+        <v>-0.7463849117283141</v>
       </c>
       <c r="G3">
-        <v>-0.8258091010027616</v>
+        <v>-0.9313264803816284</v>
       </c>
       <c r="H3">
-        <v>-0.4469426647914965</v>
+        <v>-0.3414252854126297</v>
       </c>
       <c r="I3">
         <v>-0.6169146311313748</v>
@@ -491,13 +491,13 @@
         <v>-0.3089450243958608</v>
       </c>
       <c r="F4">
-        <v>-0.6109690798429825</v>
+        <v>-0.6109690798429834</v>
       </c>
       <c r="G4">
-        <v>0.5924702440402585</v>
+        <v>0.5500243123625785</v>
       </c>
       <c r="H4">
-        <v>-0.6324923326193703</v>
+        <v>-0.5900464009416904</v>
       </c>
       <c r="I4">
         <v>-0.268922935816749</v>
@@ -524,13 +524,13 @@
         <v>-1.107596038569778</v>
       </c>
       <c r="F5">
-        <v>-0.8388825620548768</v>
+        <v>-0.8388825620548777</v>
       </c>
       <c r="G5">
-        <v>-0.9830528854812299</v>
+        <v>-0.7207535665036513</v>
       </c>
       <c r="H5">
-        <v>-0.03187285342508145</v>
+        <v>-0.29417217240266</v>
       </c>
       <c r="I5">
         <v>-0.09267029966346674</v>
@@ -557,13 +557,13 @@
         <v>-0.2174362895015348</v>
       </c>
       <c r="F6">
-        <v>-0.8809109373482007</v>
+        <v>-0.8809109373482016</v>
       </c>
       <c r="G6">
-        <v>-0.1367743216225977</v>
+        <v>-0.3921218092820477</v>
       </c>
       <c r="H6">
-        <v>-0.1043377294862644</v>
+        <v>0.1510097581731855</v>
       </c>
       <c r="I6">
         <v>0.02367576160732738</v>
@@ -590,13 +590,13 @@
         <v>0.6916906192687385</v>
       </c>
       <c r="F7">
-        <v>-0.2355716832996079</v>
+        <v>-0.2355716832996088</v>
       </c>
       <c r="G7">
-        <v>-0.007530983331492991</v>
+        <v>0.1819372852980907</v>
       </c>
       <c r="H7">
-        <v>0.45983475148806</v>
+        <v>0.2703664828584764</v>
       </c>
       <c r="I7">
         <v>0.2393868511121715</v>
@@ -623,13 +623,13 @@
         <v>1.028743299593724</v>
       </c>
       <c r="F8">
-        <v>0.09885039769778822</v>
+        <v>0.09885039769778733</v>
       </c>
       <c r="G8">
-        <v>-0.1229354572108429</v>
+        <v>-0.08140585920471588</v>
       </c>
       <c r="H8">
-        <v>0.7717753481718346</v>
+        <v>0.7302457501657076</v>
       </c>
       <c r="I8">
         <v>0.3799034086327318</v>
@@ -653,16 +653,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.8009557549500425</v>
+        <v>0.8009557549500426</v>
       </c>
       <c r="F9">
-        <v>0.5759883460777433</v>
+        <v>0.5759883460777425</v>
       </c>
       <c r="G9">
-        <v>0.2210720097878764</v>
+        <v>0.2146454590618866</v>
       </c>
       <c r="H9">
-        <v>-0.8904372297481854</v>
+        <v>-0.8840106790221955</v>
       </c>
       <c r="I9">
         <v>1.470320974910351</v>
@@ -689,13 +689,13 @@
         <v>1.919839734374504</v>
       </c>
       <c r="F10">
-        <v>1.110307352046753</v>
+        <v>1.110307352046752</v>
       </c>
       <c r="G10">
-        <v>-0.2421777842890597</v>
+        <v>0.1015065066672045</v>
       </c>
       <c r="H10">
-        <v>0.8988425516396157</v>
+        <v>0.5551582606833514</v>
       </c>
       <c r="I10">
         <v>1.263174967023948</v>
@@ -722,13 +722,13 @@
         <v>2.285342222525221</v>
       </c>
       <c r="F11">
-        <v>1.508720252860874</v>
+        <v>1.508720252860873</v>
       </c>
       <c r="G11">
-        <v>0.2764802016668795</v>
+        <v>0.2739152180795902</v>
       </c>
       <c r="H11">
-        <v>0.4791857815581942</v>
+        <v>0.4817507651454835</v>
       </c>
       <c r="I11">
         <v>1.529676239300148</v>
@@ -755,13 +755,13 @@
         <v>1.931965411866221</v>
       </c>
       <c r="F12">
-        <v>1.734525780928998</v>
+        <v>1.734525780928997</v>
       </c>
       <c r="G12">
-        <v>0.4148118483943437</v>
+        <v>0.353295910503852</v>
       </c>
       <c r="H12">
-        <v>-0.3558433896012271</v>
+        <v>-0.2943274517107353</v>
       </c>
       <c r="I12">
         <v>1.872996953073104</v>
@@ -788,13 +788,13 @@
         <v>1.443771624297853</v>
       </c>
       <c r="F13">
-        <v>1.895229748265951</v>
+        <v>1.89522974826595</v>
       </c>
       <c r="G13">
-        <v>0.08638317458400725</v>
+        <v>0.246910067968194</v>
       </c>
       <c r="H13">
-        <v>-0.1955742236307397</v>
+        <v>-0.3561011170149264</v>
       </c>
       <c r="I13">
         <v>1.552962673344586</v>
@@ -824,10 +824,10 @@
         <v>1.712311357877407</v>
       </c>
       <c r="G14">
-        <v>0.2434691941703655</v>
+        <v>0.2388924860130031</v>
       </c>
       <c r="H14">
-        <v>-0.1552575279350291</v>
+        <v>-0.1506808197776667</v>
       </c>
       <c r="I14">
         <v>1.099954506584995</v>
@@ -851,16 +851,16 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.7128131158019652</v>
+        <v>0.7128131158019653</v>
       </c>
       <c r="F15">
-        <v>1.319179081196593</v>
+        <v>1.319179081196592</v>
       </c>
       <c r="G15">
-        <v>0.3649956239585112</v>
+        <v>0.2077875909523244</v>
       </c>
       <c r="H15">
-        <v>-0.7862663013077751</v>
+        <v>-0.6290582683015883</v>
       </c>
       <c r="I15">
         <v>1.134083793151229</v>
@@ -887,13 +887,13 @@
         <v>1.38384912093355</v>
       </c>
       <c r="F16">
-        <v>1.182150008463426</v>
+        <v>1.182150008463425</v>
       </c>
       <c r="G16">
-        <v>-0.1607743612131618</v>
+        <v>-0.0693461007551871</v>
       </c>
       <c r="H16">
-        <v>0.391468084836228</v>
+        <v>0.3000398243782533</v>
       </c>
       <c r="I16">
         <v>1.153155397310484</v>
@@ -920,13 +920,13 @@
         <v>0.5882778225287952</v>
       </c>
       <c r="F17">
-        <v>0.968276558021161</v>
+        <v>0.9682765580211601</v>
       </c>
       <c r="G17">
-        <v>-0.1660774104289633</v>
+        <v>0.3260078664348361</v>
       </c>
       <c r="H17">
-        <v>-0.1664084210901077</v>
+        <v>-0.6584936979539071</v>
       </c>
       <c r="I17">
         <v>0.9207636540478663</v>
@@ -953,13 +953,13 @@
         <v>0.6484157767578571</v>
       </c>
       <c r="F18">
-        <v>0.8333389590055424</v>
+        <v>0.8333389590055416</v>
       </c>
       <c r="G18">
-        <v>0.4119572789015341</v>
+        <v>0.1893019553206808</v>
       </c>
       <c r="H18">
-        <v>-0.4496812402601617</v>
+        <v>-0.2270259166793083</v>
       </c>
       <c r="I18">
         <v>0.6861397381164847</v>
@@ -986,13 +986,13 @@
         <v>0.07736815158605978</v>
       </c>
       <c r="F19">
-        <v>0.6744777179515661</v>
+        <v>0.6744777179515651</v>
       </c>
       <c r="G19">
-        <v>0.5265814199699043</v>
+        <v>0.6514064249919546</v>
       </c>
       <c r="H19">
-        <v>-0.6971320107002501</v>
+        <v>-0.8219570157223004</v>
       </c>
       <c r="I19">
         <v>0.2479187423164056</v>
@@ -1016,16 +1016,16 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-0.1204265298871155</v>
+        <v>-0.1204265298871156</v>
       </c>
       <c r="F20">
-        <v>0.2984088052463997</v>
+        <v>0.2984088052463987</v>
       </c>
       <c r="G20">
-        <v>0.1939937954892483</v>
+        <v>0.2385040933098152</v>
       </c>
       <c r="H20">
-        <v>-0.5110391928874694</v>
+        <v>-0.5555494907080363</v>
       </c>
       <c r="I20">
         <v>0.1966188675111055</v>
@@ -1052,13 +1052,13 @@
         <v>-0.4655468536569111</v>
       </c>
       <c r="F21">
-        <v>0.0349526361999731</v>
+        <v>0.0349526361999721</v>
       </c>
       <c r="G21">
-        <v>0.3410371559950857</v>
+        <v>-0.09318209360398316</v>
       </c>
       <c r="H21">
-        <v>-0.7326017368471034</v>
+        <v>-0.2983824872480345</v>
       </c>
       <c r="I21">
         <v>-0.07398227280489336</v>
@@ -1085,13 +1085,13 @@
         <v>-0.66597156096414</v>
       </c>
       <c r="F22">
-        <v>-0.2936441982305262</v>
+        <v>-0.2936441982305272</v>
       </c>
       <c r="G22">
-        <v>-0.1674425769180218</v>
+        <v>-0.1666400563814809</v>
       </c>
       <c r="H22">
-        <v>-0.4183333023237494</v>
+        <v>-0.4191358228602902</v>
       </c>
       <c r="I22">
         <v>-0.08019568172236891</v>
@@ -1118,13 +1118,13 @@
         <v>-0.6363277001230021</v>
       </c>
       <c r="F23">
-        <v>-0.4720681611577917</v>
+        <v>-0.4720681611577927</v>
       </c>
       <c r="G23">
-        <v>0.1111093650562286</v>
+        <v>0.2327568079474165</v>
       </c>
       <c r="H23">
-        <v>-0.2475996230156754</v>
+        <v>-0.3692470659068633</v>
       </c>
       <c r="I23">
         <v>-0.4998374421635554</v>
@@ -1151,13 +1151,13 @@
         <v>-1.059191424855756</v>
       </c>
       <c r="F24">
-        <v>-0.7067593848999516</v>
+        <v>-0.7067593848999527</v>
       </c>
       <c r="G24">
-        <v>-0.1286176934788302</v>
+        <v>-0.1717962294582624</v>
       </c>
       <c r="H24">
-        <v>-0.4180221808679609</v>
+        <v>-0.3748436448885287</v>
       </c>
       <c r="I24">
         <v>-0.5125515505089645</v>
@@ -1184,13 +1184,13 @@
         <v>-0.7625094549814095</v>
       </c>
       <c r="F25">
-        <v>-0.7810000352310762</v>
+        <v>-0.7810000352310773</v>
       </c>
       <c r="G25">
-        <v>0.4974004549722678</v>
+        <v>0.1869236725824393</v>
       </c>
       <c r="H25">
-        <v>-0.7294913180800229</v>
+        <v>-0.4190145356901944</v>
       </c>
       <c r="I25">
         <v>-0.5304185918736545</v>
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>-0.868637331105107</v>
+        <v>-0.8686373311051071</v>
       </c>
       <c r="F26">
-        <v>-0.831666477766318</v>
+        <v>-0.8316664777663191</v>
       </c>
       <c r="G26">
-        <v>-0.0354311851550875</v>
+        <v>-0.06221906854071747</v>
       </c>
       <c r="H26">
-        <v>-0.3716284230365846</v>
+        <v>-0.3448405396509547</v>
       </c>
       <c r="I26">
         <v>-0.461577722913435</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-0.08933197463653675</v>
+        <v>-0.08933197463653664</v>
       </c>
       <c r="F27">
-        <v>-0.6949175463947017</v>
+        <v>-0.6949175463947028</v>
       </c>
       <c r="G27">
-        <v>0.7624212849964971</v>
+        <v>0.4798130027133863</v>
       </c>
       <c r="H27">
-        <v>-0.2430005398580263</v>
+        <v>0.03960774242508455</v>
       </c>
       <c r="I27">
         <v>-0.6087527197750074</v>
@@ -1283,13 +1283,13 @@
         <v>-1.121362038847531</v>
       </c>
       <c r="F28">
-        <v>-0.7104601998926455</v>
+        <v>-0.7104601998926466</v>
       </c>
       <c r="G28">
-        <v>-0.1705018602960304</v>
+        <v>-0.2531282879832829</v>
       </c>
       <c r="H28">
-        <v>-0.2867973955246156</v>
+        <v>-0.2041709678373632</v>
       </c>
       <c r="I28">
         <v>-0.664062783026885</v>
@@ -1316,13 +1316,13 @@
         <v>-0.8025841134312768</v>
       </c>
       <c r="F29">
-        <v>-0.7204788645051123</v>
+        <v>-0.7204788645051134</v>
       </c>
       <c r="G29">
-        <v>-0.4025810502845579</v>
+        <v>-0.1801775472520102</v>
       </c>
       <c r="H29">
-        <v>-0.1206565046774728</v>
+        <v>-0.3430600077100206</v>
       </c>
       <c r="I29">
         <v>-0.2793465584692461</v>
@@ -1346,16 +1346,16 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.04497306661156086</v>
+        <v>-0.04497306661156075</v>
       </c>
       <c r="F30">
-        <v>-0.5145627983817258</v>
+        <v>-0.5145627983817269</v>
       </c>
       <c r="G30">
-        <v>0.8359205068024886</v>
+        <v>0.5069824460810328</v>
       </c>
       <c r="H30">
-        <v>-0.5926581259924339</v>
+        <v>-0.263720065270978</v>
       </c>
       <c r="I30">
         <v>-0.2882354474216156</v>
@@ -1382,13 +1382,13 @@
         <v>-0.5945145374658474</v>
       </c>
       <c r="F31">
-        <v>-0.6408584390890534</v>
+        <v>-0.6408584390890546</v>
       </c>
       <c r="G31">
-        <v>-0.7073973674590198</v>
+        <v>-0.1788594660634074</v>
       </c>
       <c r="H31">
-        <v>0.4506008967421731</v>
+        <v>-0.07793700465343935</v>
       </c>
       <c r="I31">
         <v>-0.3377180667490006</v>
@@ -1415,13 +1415,13 @@
         <v>0.04949840875269429</v>
       </c>
       <c r="F32">
-        <v>-0.3481433271889971</v>
+        <v>-0.3481433271889983</v>
       </c>
       <c r="G32">
-        <v>0.3357858749249755</v>
+        <v>-0.0226120445891852</v>
       </c>
       <c r="H32">
-        <v>-0.007764077025722346</v>
+        <v>0.3506338424884383</v>
       </c>
       <c r="I32">
         <v>-0.2785233891465588</v>
@@ -1448,13 +1448,13 @@
         <v>-0.06747215153773295</v>
       </c>
       <c r="F33">
-        <v>-0.1643653367156112</v>
+        <v>-0.1643653367156124</v>
       </c>
       <c r="G33">
-        <v>0.3030696969149382</v>
+        <v>0.3154886154677249</v>
       </c>
       <c r="H33">
-        <v>-0.3231493194878068</v>
+        <v>-0.3355682380405935</v>
       </c>
       <c r="I33">
         <v>-0.04739252896486435</v>
@@ -1481,13 +1481,13 @@
         <v>0.2925968720771209</v>
       </c>
       <c r="F34">
-        <v>-0.07997285204344071</v>
+        <v>-0.07997285204344196</v>
       </c>
       <c r="G34">
-        <v>0.6236358189557167</v>
+        <v>0.5704811619923629</v>
       </c>
       <c r="H34">
-        <v>-0.3814385836201902</v>
+        <v>-0.3282839266568364</v>
       </c>
       <c r="I34">
         <v>0.05039963674159439</v>
@@ -1514,13 +1514,13 @@
         <v>-0.05470159743612268</v>
       </c>
       <c r="F35">
-        <v>0.05498038296399047</v>
+        <v>0.05498038296398922</v>
       </c>
       <c r="G35">
-        <v>0.3150841855461573</v>
+        <v>0.3116461926432357</v>
       </c>
       <c r="H35">
-        <v>-0.4987027959034622</v>
+        <v>-0.4952648030005405</v>
       </c>
       <c r="I35">
         <v>0.1289170129211822</v>
@@ -1547,13 +1547,13 @@
         <v>2.604105573262943</v>
       </c>
       <c r="F36">
-        <v>0.6936321740915526</v>
+        <v>0.6936321740915514</v>
       </c>
       <c r="G36">
-        <v>0.5166529743842377</v>
+        <v>0.5024531741386449</v>
       </c>
       <c r="H36">
-        <v>-0.1830553005197068</v>
+        <v>-0.168855500274114</v>
       </c>
       <c r="I36">
         <v>2.270507899398412</v>
@@ -1580,13 +1580,13 @@
         <v>1.412453084073397</v>
       </c>
       <c r="F37">
-        <v>1.063613482994335</v>
+        <v>1.063613482994334</v>
       </c>
       <c r="G37">
-        <v>0.5925992969432132</v>
+        <v>0.5306177059030419</v>
       </c>
       <c r="H37">
-        <v>-0.2860140211230767</v>
+        <v>-0.2240324300829054</v>
       </c>
       <c r="I37">
         <v>1.105867808253261</v>
@@ -1613,13 +1613,13 @@
         <v>1.633001091925851</v>
       </c>
       <c r="F38">
-        <v>1.398714537956518</v>
+        <v>1.398714537956516</v>
       </c>
       <c r="G38">
-        <v>-0.1394235971469711</v>
+        <v>0.03622679502884685</v>
       </c>
       <c r="H38">
-        <v>0.3571153873473796</v>
+        <v>0.1814649951715617</v>
       </c>
       <c r="I38">
         <v>1.415309301725443</v>
@@ -1646,13 +1646,13 @@
         <v>3.532122308897292</v>
       </c>
       <c r="F39">
-        <v>2.295420514539872</v>
+        <v>2.29542051453987</v>
       </c>
       <c r="G39">
-        <v>-1.010304394238504</v>
+        <v>0.4007579418588529</v>
       </c>
       <c r="H39">
-        <v>1.627220873564416</v>
+        <v>0.2161585374670598</v>
       </c>
       <c r="I39">
         <v>2.915205829571379</v>
@@ -1679,13 +1679,13 @@
         <v>2.864287839047667</v>
       </c>
       <c r="F40">
-        <v>2.360466080986053</v>
+        <v>2.360466080986051</v>
       </c>
       <c r="G40">
-        <v>-0.7543117229878844</v>
+        <v>-0.3209492753408961</v>
       </c>
       <c r="H40">
-        <v>1.691007600770912</v>
+        <v>1.257645153123924</v>
       </c>
       <c r="I40">
         <v>1.92759196126464</v>
@@ -1712,13 +1712,13 @@
         <v>2.739702111884473</v>
       </c>
       <c r="F41">
-        <v>2.692278337938822</v>
+        <v>2.69227833793882</v>
       </c>
       <c r="G41">
-        <v>0.3756400630062369</v>
+        <v>-0.01219583143274194</v>
       </c>
       <c r="H41">
-        <v>-0.4002634009716644</v>
+        <v>-0.01242750653268562</v>
       </c>
       <c r="I41">
         <v>2.764325449849901</v>
@@ -1745,13 +1745,13 @@
         <v>2.255849807384959</v>
       </c>
       <c r="F42">
-        <v>2.847990516803598</v>
+        <v>2.847990516803597</v>
       </c>
       <c r="G42">
-        <v>0.3576683738579091</v>
+        <v>0.2132604563716354</v>
       </c>
       <c r="H42">
-        <v>-0.4430667021908947</v>
+        <v>-0.2986587847046211</v>
       </c>
       <c r="I42">
         <v>2.341248135717945</v>
@@ -1778,13 +1778,13 @@
         <v>1.495647569594782</v>
       </c>
       <c r="F43">
-        <v>2.338871831977971</v>
+        <v>2.338871831977969</v>
       </c>
       <c r="G43">
-        <v>-0.05919375500843627</v>
+        <v>0.1087658983554791</v>
       </c>
       <c r="H43">
-        <v>-0.5142971523108247</v>
+        <v>-0.6822568056747401</v>
       </c>
       <c r="I43">
         <v>2.069138476914044</v>
@@ -1811,13 +1811,13 @@
         <v>1.196798063428107</v>
       </c>
       <c r="F44">
-        <v>1.921999388073081</v>
+        <v>1.921999388073079</v>
       </c>
       <c r="G44">
-        <v>0.3644241823176939</v>
+        <v>0.3070503627580772</v>
       </c>
       <c r="H44">
-        <v>-0.3205134119826434</v>
+        <v>-0.2631395924230268</v>
       </c>
       <c r="I44">
         <v>1.152887293093057</v>
@@ -1841,16 +1841,16 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0.1911591396440101</v>
+        <v>0.19115913964401</v>
       </c>
       <c r="F45">
-        <v>1.284863645012965</v>
+        <v>1.284863645012963</v>
       </c>
       <c r="G45">
-        <v>-0.8313036391249781</v>
+        <v>-0.5941267731689788</v>
       </c>
       <c r="H45">
-        <v>-0.01083749490843422</v>
+        <v>-0.2480143608644336</v>
       </c>
       <c r="I45">
         <v>1.033300273677422</v>
@@ -1877,13 +1877,13 @@
         <v>0.2279892483689394</v>
       </c>
       <c r="F46">
-        <v>0.7778985052589601</v>
+        <v>0.7778985052589583</v>
       </c>
       <c r="G46">
-        <v>0.1093803265933912</v>
+        <v>0.3856258231041433</v>
       </c>
       <c r="H46">
-        <v>-0.9040400558173874</v>
+        <v>-1.18028555232814</v>
       </c>
       <c r="I46">
         <v>1.022648977592936</v>
@@ -1907,16 +1907,16 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>-1.435288190584409</v>
+        <v>-1.43528819058441</v>
       </c>
       <c r="F47">
-        <v>0.04516456521416212</v>
+        <v>0.04516456521416029</v>
       </c>
       <c r="G47">
-        <v>0.1052663018400833</v>
+        <v>-0.4061416517620683</v>
       </c>
       <c r="H47">
-        <v>-1.405178161365769</v>
+        <v>-0.8937702077636179</v>
       </c>
       <c r="I47">
         <v>-0.1353763310587236</v>
@@ -1943,13 +1943,13 @@
         <v>-1.317189124701745</v>
       </c>
       <c r="F48">
-        <v>-0.583332231818301</v>
+        <v>-0.5833322318183027</v>
       </c>
       <c r="G48">
-        <v>-0.04771455165967983</v>
+        <v>-0.3027931150509346</v>
       </c>
       <c r="H48">
-        <v>-0.8001360962587797</v>
+        <v>-0.5450575328675249</v>
       </c>
       <c r="I48">
         <v>-0.4693384767832854</v>
@@ -1976,13 +1976,13 @@
         <v>-2.162992892311451</v>
       </c>
       <c r="F49">
-        <v>-1.171870239807166</v>
+        <v>-1.171870239807168</v>
       </c>
       <c r="G49">
-        <v>0.7765806304481789</v>
+        <v>-0.295390803202876</v>
       </c>
       <c r="H49">
-        <v>-2.238181795684729</v>
+        <v>-1.166210362033674</v>
       </c>
       <c r="I49">
         <v>-0.7013917270749013</v>
@@ -2009,13 +2009,13 @@
         <v>-1.084930329632481</v>
       </c>
       <c r="F50">
-        <v>-1.500100134307521</v>
+        <v>-1.500100134307523</v>
       </c>
       <c r="G50">
-        <v>0.1834550111211309</v>
+        <v>0.2222166473360502</v>
       </c>
       <c r="H50">
-        <v>-0.5344419343078262</v>
+        <v>-0.5732035705227455</v>
       </c>
       <c r="I50">
         <v>-0.7339434064457862</v>
@@ -2042,13 +2042,13 @@
         <v>-1.457288912263728</v>
       </c>
       <c r="F51">
-        <v>-1.505600314727351</v>
+        <v>-1.505600314727353</v>
       </c>
       <c r="G51">
-        <v>0.07071560981847642</v>
+        <v>0.1436219378449381</v>
       </c>
       <c r="H51">
-        <v>-0.7176627443754469</v>
+        <v>-0.7905690724019085</v>
       </c>
       <c r="I51">
         <v>-0.8103417777067574</v>
@@ -2075,13 +2075,13 @@
         <v>-1.284356325970676</v>
       </c>
       <c r="F52">
-        <v>-1.497392115044584</v>
+        <v>-1.497392115044585</v>
       </c>
       <c r="G52">
-        <v>-0.5080724268524279</v>
+        <v>-0.1193603572974162</v>
       </c>
       <c r="H52">
-        <v>-0.2025417710180311</v>
+        <v>-0.5912538405730428</v>
       </c>
       <c r="I52">
         <v>-0.5737421281002171</v>
@@ -2108,13 +2108,13 @@
         <v>-0.8583302477527929</v>
       </c>
       <c r="F53">
-        <v>-1.171226453904919</v>
+        <v>-1.171226453904921</v>
       </c>
       <c r="G53">
-        <v>0.3052194895081336</v>
+        <v>-0.0513766419616992</v>
       </c>
       <c r="H53">
-        <v>-0.7312252649849217</v>
+        <v>-0.3746291335150889</v>
       </c>
       <c r="I53">
         <v>-0.4323244722760048</v>
@@ -2141,13 +2141,13 @@
         <v>-1.565634900165805</v>
       </c>
       <c r="F54">
-        <v>-1.29140259653825</v>
+        <v>-1.291402596538252</v>
       </c>
       <c r="G54">
-        <v>-0.7446092858195115</v>
+        <v>-0.6363952078164203</v>
       </c>
       <c r="H54">
-        <v>-0.3252187427316049</v>
+        <v>-0.4334328207346961</v>
       </c>
       <c r="I54">
         <v>-0.4958068716146886</v>
@@ -2174,13 +2174,13 @@
         <v>-1.783417127555434</v>
       </c>
       <c r="F55">
-        <v>-1.372934650361177</v>
+        <v>-1.372934650361179</v>
       </c>
       <c r="G55">
-        <v>-0.4921686592235954</v>
+        <v>-0.6238828863399448</v>
       </c>
       <c r="H55">
-        <v>-0.5060852635372585</v>
+        <v>-0.374371036420909</v>
       </c>
       <c r="I55">
         <v>-0.78516320479458</v>
@@ -2207,13 +2207,13 @@
         <v>-1.295427428140189</v>
       </c>
       <c r="F56">
-        <v>-1.375702425903555</v>
+        <v>-1.375702425903557</v>
       </c>
       <c r="G56">
-        <v>-0.6287230574743243</v>
+        <v>-0.3875624396426335</v>
       </c>
       <c r="H56">
-        <v>0.1849357720145109</v>
+        <v>-0.05622484581717993</v>
       </c>
       <c r="I56">
         <v>-0.8516401426803758</v>
@@ -2240,13 +2240,13 @@
         <v>-1.152610993212792</v>
       </c>
       <c r="F57">
-        <v>-1.449272612268555</v>
+        <v>-1.449272612268557</v>
       </c>
       <c r="G57">
-        <v>-0.3703343524026967</v>
+        <v>-0.4910868759334429</v>
       </c>
       <c r="H57">
-        <v>-0.3457679880864566</v>
+        <v>-0.2250154645557105</v>
       </c>
       <c r="I57">
         <v>-0.4365086527236389</v>
@@ -2273,13 +2273,13 @@
         <v>-1.384226526985612</v>
       </c>
       <c r="F58">
-        <v>-1.403920518973507</v>
+        <v>-1.403920518973508</v>
       </c>
       <c r="G58">
-        <v>-0.2932689428279618</v>
+        <v>-0.3370389359541757</v>
       </c>
       <c r="H58">
-        <v>-0.6086125493060102</v>
+        <v>-0.5648425561797963</v>
       </c>
       <c r="I58">
         <v>-0.4823450348516403</v>
@@ -2306,13 +2306,13 @@
         <v>-1.297272162778938</v>
       </c>
       <c r="F59">
-        <v>-1.282384277779383</v>
+        <v>-1.282384277779385</v>
       </c>
       <c r="G59">
-        <v>-0.4758609317219583</v>
+        <v>-0.04976657374885463</v>
       </c>
       <c r="H59">
-        <v>-0.1457904065771868</v>
+        <v>-0.5718847645502905</v>
       </c>
       <c r="I59">
         <v>-0.6756208244797927</v>
@@ -2339,13 +2339,13 @@
         <v>-0.7507150353225633</v>
       </c>
       <c r="F60">
-        <v>-1.146206179574976</v>
+        <v>-1.146206179574978</v>
       </c>
       <c r="G60">
-        <v>-0.8186692113648987</v>
+        <v>-0.4910854575458932</v>
       </c>
       <c r="H60">
-        <v>0.5957517148257038</v>
+        <v>0.2681679610066983</v>
       </c>
       <c r="I60">
         <v>-0.5277975387833684</v>
@@ -2372,13 +2372,13 @@
         <v>-0.1726286086756727</v>
       </c>
       <c r="F61">
-        <v>-0.9012105834406965</v>
+        <v>-0.9012105834406983</v>
       </c>
       <c r="G61">
-        <v>-0.145679135076869</v>
+        <v>0.3480642984275685</v>
       </c>
       <c r="H61">
-        <v>0.3184937748295076</v>
+        <v>-0.1752496586749299</v>
       </c>
       <c r="I61">
         <v>-0.3454432484283113</v>
@@ -2405,13 +2405,13 @@
         <v>-0.5422171705718358</v>
       </c>
       <c r="F62">
-        <v>-0.6907082443372523</v>
+        <v>-0.6907082443372541</v>
       </c>
       <c r="G62">
-        <v>-0.2593789762831167</v>
+        <v>-0.2135354614117673</v>
       </c>
       <c r="H62">
-        <v>-0.08853033153108195</v>
+        <v>-0.1343738464024314</v>
       </c>
       <c r="I62">
         <v>-0.1943078627576371</v>
@@ -2435,16 +2435,16 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.07508084834374586</v>
+        <v>0.07508084834374587</v>
       </c>
       <c r="F63">
-        <v>-0.3476199915565814</v>
+        <v>-0.3476199915565832</v>
       </c>
       <c r="G63">
-        <v>-0.4697092063682171</v>
+        <v>-0.05467598721032162</v>
       </c>
       <c r="H63">
-        <v>0.5264808541056698</v>
+        <v>0.1114476349477743</v>
       </c>
       <c r="I63">
         <v>0.01830920060629317</v>
@@ -2471,13 +2471,13 @@
         <v>0.2871956342159526</v>
       </c>
       <c r="F64">
-        <v>-0.08814232417195239</v>
+        <v>-0.08814232417195422</v>
       </c>
       <c r="G64">
-        <v>0.00252362715707305</v>
+        <v>-0.05836025933575986</v>
       </c>
       <c r="H64">
-        <v>0.2957485899681959</v>
+        <v>0.3566324764610287</v>
       </c>
       <c r="I64">
         <v>-0.01107658290931631</v>
@@ -2501,16 +2501,16 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.0348932722193499</v>
+        <v>0.03489327221934987</v>
       </c>
       <c r="F65">
-        <v>-0.03626185394819675</v>
+        <v>-0.03626185394819856</v>
       </c>
       <c r="G65">
-        <v>-0.1916737660827708</v>
+        <v>-0.2418132919872414</v>
       </c>
       <c r="H65">
-        <v>0.20717784504545</v>
+        <v>0.2573173709499207</v>
       </c>
       <c r="I65">
         <v>0.01938919325667063</v>
@@ -2537,13 +2537,13 @@
         <v>-0.1005819750487675</v>
       </c>
       <c r="F66">
-        <v>0.07414694493257033</v>
+        <v>0.07414694493256851</v>
       </c>
       <c r="G66">
-        <v>-0.237408238522889</v>
+        <v>0.05101787022249363</v>
       </c>
       <c r="H66">
-        <v>0.1939880631619681</v>
+        <v>-0.09443804558341459</v>
       </c>
       <c r="I66">
         <v>-0.05716179968784655</v>
@@ -2570,13 +2570,13 @@
         <v>0.3176073506458551</v>
       </c>
       <c r="F67">
-        <v>0.1347785705080976</v>
+        <v>0.1347785705080958</v>
       </c>
       <c r="G67">
-        <v>0.0884167089163581</v>
+        <v>-0.03154046296070167</v>
       </c>
       <c r="H67">
-        <v>0.263932749000691</v>
+        <v>0.3838899208777508</v>
       </c>
       <c r="I67">
         <v>-0.03474210727119406</v>
@@ -2603,13 +2603,13 @@
         <v>-0.4746798065130151</v>
       </c>
       <c r="F68">
-        <v>-0.0556902896741443</v>
+        <v>-0.05569028967414609</v>
       </c>
       <c r="G68">
-        <v>-0.4450544600869576</v>
+        <v>-0.4192836782205874</v>
       </c>
       <c r="H68">
-        <v>0.04416737387214878</v>
+        <v>0.01839659200577853</v>
       </c>
       <c r="I68">
         <v>-0.07379272029820626</v>
@@ -2636,13 +2636,13 @@
         <v>-0.09238412162976098</v>
       </c>
       <c r="F69">
-        <v>-0.08750963813642201</v>
+        <v>-0.08750963813642382</v>
       </c>
       <c r="G69">
-        <v>-0.1398262108948259</v>
+        <v>0.0801878902755836</v>
       </c>
       <c r="H69">
-        <v>0.1858025198829757</v>
+        <v>-0.0342115812874337</v>
       </c>
       <c r="I69">
         <v>-0.1383604306179109</v>
@@ -2669,13 +2669,13 @@
         <v>-0.1990579218844226</v>
       </c>
       <c r="F70">
-        <v>-0.1121286248453358</v>
+        <v>-0.1121286248453376</v>
       </c>
       <c r="G70">
-        <v>-0.1792851824516286</v>
+        <v>-0.04382688169326982</v>
       </c>
       <c r="H70">
-        <v>0.08477735595623841</v>
+        <v>-0.05068094480212036</v>
       </c>
       <c r="I70">
         <v>-0.1045500953890324</v>
@@ -2699,16 +2699,16 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>-0.2103550967322966</v>
+        <v>-0.2103550967322965</v>
       </c>
       <c r="F71">
-        <v>-0.2441192366898737</v>
+        <v>-0.2441192366898755</v>
       </c>
       <c r="G71">
-        <v>0.2174619008522116</v>
+        <v>-0.1377529640918763</v>
       </c>
       <c r="H71">
-        <v>-0.4907175487130033</v>
+        <v>-0.1355026837689153</v>
       </c>
       <c r="I71">
         <v>0.06290055112849507</v>
@@ -2732,16 +2732,16 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.07533844586083795</v>
+        <v>0.07533844586083796</v>
       </c>
       <c r="F72">
-        <v>-0.1066146735964104</v>
+        <v>-0.1066146735964122</v>
       </c>
       <c r="G72">
-        <v>0.4713448001377887</v>
+        <v>-0.03924109363227601</v>
       </c>
       <c r="H72">
-        <v>-0.4841068420812866</v>
+        <v>0.02647905168877808</v>
       </c>
       <c r="I72">
         <v>0.08810048780433589</v>
@@ -2768,13 +2768,13 @@
         <v>-0.2287256002259627</v>
       </c>
       <c r="F73">
-        <v>-0.1407000432454608</v>
+        <v>-0.1407000432454626</v>
       </c>
       <c r="G73">
-        <v>-0.3017482222486264</v>
+        <v>0.08247118082069227</v>
       </c>
       <c r="H73">
-        <v>0.0461165940822635</v>
+        <v>-0.3381028089870552</v>
       </c>
       <c r="I73">
         <v>0.02690602794040024</v>
@@ -2801,13 +2801,13 @@
         <v>0.03959594375674771</v>
       </c>
       <c r="F74">
-        <v>-0.08103657683516828</v>
+        <v>-0.08103657683517008</v>
       </c>
       <c r="G74">
-        <v>0.2073956322153751</v>
+        <v>0.1979833868374757</v>
       </c>
       <c r="H74">
-        <v>-0.01076315396575835</v>
+        <v>-0.001350908587858928</v>
       </c>
       <c r="I74">
         <v>-0.157036534492869</v>
@@ -2831,16 +2831,16 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0.0181712003829638</v>
+        <v>0.01817120038296379</v>
       </c>
       <c r="F75">
-        <v>-0.02390500255635318</v>
+        <v>-0.02390500255635501</v>
       </c>
       <c r="G75">
-        <v>0.0306947164186419</v>
+        <v>0.03440226508985154</v>
       </c>
       <c r="H75">
-        <v>-0.08217652218718199</v>
+        <v>-0.08588407085839164</v>
       </c>
       <c r="I75">
         <v>0.0696530061515039</v>
@@ -2864,16 +2864,16 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0.4273310033908085</v>
+        <v>0.4273310033908086</v>
       </c>
       <c r="F76">
-        <v>0.06409313682613947</v>
+        <v>0.06409313682613765</v>
       </c>
       <c r="G76">
-        <v>0.3711025642848282</v>
+        <v>0.2145783662221039</v>
       </c>
       <c r="H76">
-        <v>-0.181330738092726</v>
+        <v>-0.02480654003000164</v>
       </c>
       <c r="I76">
         <v>0.2375591771987063</v>
@@ -2900,13 +2900,13 @@
         <v>0.1656468001724334</v>
       </c>
       <c r="F77">
-        <v>0.1626862369257385</v>
+        <v>0.1626862369257367</v>
       </c>
       <c r="G77">
-        <v>0.149736121517427</v>
+        <v>0.1538570833450142</v>
       </c>
       <c r="H77">
-        <v>-0.0320475365984423</v>
+        <v>-0.03616849842602952</v>
       </c>
       <c r="I77">
         <v>0.04795821525344868</v>
@@ -2933,13 +2933,13 @@
         <v>-0.4280410883731992</v>
       </c>
       <c r="F78">
-        <v>0.04577697889325178</v>
+        <v>0.04577697889324995</v>
       </c>
       <c r="G78">
-        <v>0.1749990815077021</v>
+        <v>0.04055544838024492</v>
       </c>
       <c r="H78">
-        <v>-0.6542590178924728</v>
+        <v>-0.5198153847650157</v>
       </c>
       <c r="I78">
         <v>0.05121884801157155</v>
@@ -2963,16 +2963,16 @@
         <v>0</v>
       </c>
       <c r="E79">
-        <v>0.210990717730719</v>
+        <v>0.2109907177307189</v>
       </c>
       <c r="F79">
-        <v>0.09398185823019056</v>
+        <v>0.09398185823018874</v>
       </c>
       <c r="G79">
-        <v>-0.2106043375194083</v>
+        <v>0.06611155006780282</v>
       </c>
       <c r="H79">
-        <v>0.3193946113555037</v>
+        <v>0.04267872376829254</v>
       </c>
       <c r="I79">
         <v>0.1022004438946236</v>
@@ -2999,13 +2999,13 @@
         <v>0.6139051435579954</v>
       </c>
       <c r="F80">
-        <v>0.1406253932719873</v>
+        <v>0.1406253932719854</v>
       </c>
       <c r="G80">
-        <v>0.2937140377981479</v>
+        <v>0.4860747928588423</v>
       </c>
       <c r="H80">
-        <v>0.2449579536285602</v>
+        <v>0.05259719856786579</v>
       </c>
       <c r="I80">
         <v>0.07523315213128735</v>
@@ -3032,13 +3032,13 @@
         <v>0.4001838849401698</v>
       </c>
       <c r="F81">
-        <v>0.1992596644639214</v>
+        <v>0.1992596644639195</v>
       </c>
       <c r="G81">
-        <v>0.2865971339551443</v>
+        <v>0.2126750622973856</v>
       </c>
       <c r="H81">
-        <v>-0.2340443635458391</v>
+        <v>-0.1601222918880804</v>
       </c>
       <c r="I81">
         <v>0.3476311145308645</v>
@@ -3065,13 +3065,13 @@
         <v>0.4806702503234168</v>
       </c>
       <c r="F82">
-        <v>0.4264374991380753</v>
+        <v>0.4264374991380735</v>
       </c>
       <c r="G82">
-        <v>0.1490979692537087</v>
+        <v>-0.06759555232471351</v>
       </c>
       <c r="H82">
-        <v>-0.05208330323458077</v>
+        <v>0.1646102183438414</v>
       </c>
       <c r="I82">
         <v>0.3836555843042889</v>
@@ -3098,13 +3098,13 @@
         <v>0.08512296786821864</v>
       </c>
       <c r="F83">
-        <v>0.3949705616724503</v>
+        <v>0.3949705616724484</v>
       </c>
       <c r="G83">
-        <v>-0.1315350366358019</v>
+        <v>-0.008759110952919914</v>
       </c>
       <c r="H83">
-        <v>0.03552025383975564</v>
+        <v>-0.08725567184312638</v>
       </c>
       <c r="I83">
         <v>0.1811377506642649</v>
@@ -3131,13 +3131,13 @@
         <v>14.28947861010109</v>
       </c>
       <c r="F84">
-        <v>3.813863928308224</v>
+        <v>3.813863928308222</v>
       </c>
       <c r="G84">
-        <v>-13.38078971605236</v>
+        <v>-0.4827435764641372</v>
       </c>
       <c r="H84">
-        <v>13.49423592109078</v>
+        <v>0.5961897815025615</v>
       </c>
       <c r="I84">
         <v>14.17603240506267</v>
@@ -3161,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>3.491112304931545</v>
+        <v>3.686931383727245</v>
       </c>
       <c r="F85">
-        <v>4.586596033306067</v>
+        <v>4.635550803004992</v>
       </c>
       <c r="G85">
-        <v>13.42000004326608</v>
+        <v>-0.6953801659557474</v>
       </c>
       <c r="H85">
-        <v>-14.66128897194404</v>
+        <v>-0.5459087627222186</v>
       </c>
       <c r="I85">
-        <v>4.732401233609511</v>
+        <v>4.928220312405212</v>
       </c>
     </row>
     <row r="86">
@@ -3191,19 +3191,19 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>-0.8949744362011745</v>
+        <v>-1.231403313728993</v>
       </c>
       <c r="F86">
-        <v>4.24268486167492</v>
+        <v>4.207532411991889</v>
       </c>
       <c r="G86">
-        <v>0.006139109128740702</v>
+        <v>1.148087332308202</v>
       </c>
       <c r="H86">
-        <v>-0.1729710770581888</v>
+        <v>-1.31491930023765</v>
       </c>
       <c r="I86">
-        <v>-0.7281424682717264</v>
+        <v>-1.064571345799545</v>
       </c>
     </row>
     <row r="87">
@@ -3221,19 +3221,19 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>-0.5270943922185047</v>
+        <v>-0.8305714533620708</v>
       </c>
       <c r="F87">
-        <v>4.089630521653238</v>
+        <v>3.978608806684317</v>
       </c>
       <c r="G87">
-        <v>-0.05360840376763673</v>
+        <v>0.2286361423958756</v>
       </c>
       <c r="H87">
-        <v>-0.2148391603919926</v>
+        <v>-0.4970837065555049</v>
       </c>
       <c r="I87">
-        <v>-0.2586468280588755</v>
+        <v>-0.5621238892024415</v>
       </c>
     </row>
     <row r="88">
@@ -3251,19 +3251,19 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>-3.338810541820667</v>
+        <v>-2.09994625453426</v>
       </c>
       <c r="F88">
-        <v>-0.3174417663272004</v>
+        <v>-0.1187474094745209</v>
       </c>
       <c r="G88">
-        <v>-0.05022400008141811</v>
+        <v>0.1981061822157925</v>
       </c>
       <c r="H88">
-        <v>-0.3666592962235275</v>
+        <v>-0.6149894785207382</v>
       </c>
       <c r="I88">
-        <v>-2.921927245515721</v>
+        <v>-1.683062958229314</v>
       </c>
     </row>
     <row r="89">
@@ -3281,19 +3281,19 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>-3.57946808860577</v>
+        <v>-2.059307917070394</v>
       </c>
       <c r="F89">
-        <v>-2.085086864711529</v>
+        <v>-1.555307234673931</v>
       </c>
       <c r="G89">
-        <v>-0.02685459976520478</v>
+        <v>0.2139007158599328</v>
       </c>
       <c r="H89">
-        <v>-0.2487615372976185</v>
+        <v>-0.4895168529227561</v>
       </c>
       <c r="I89">
-        <v>-3.303851951542947</v>
+        <v>-1.783691780007571</v>
       </c>
     </row>
     <row r="90">
@@ -3311,19 +3311,19 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>-4.467450275404602</v>
+        <v>-2.455125777458064</v>
       </c>
       <c r="F90">
-        <v>-2.978205824512386</v>
+        <v>-1.861237850606198</v>
       </c>
       <c r="G90">
-        <v>-0.002385337960238074</v>
+        <v>-0.1964023487265982</v>
       </c>
       <c r="H90">
-        <v>-0.1190759956204702</v>
+        <v>0.07494101514588998</v>
       </c>
       <c r="I90">
-        <v>-4.345988941823894</v>
+        <v>-2.333664443877355</v>
       </c>
     </row>
     <row r="91">
@@ -3341,19 +3341,19 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>-4.329488952986162</v>
+        <v>-0.7787090697350761</v>
       </c>
       <c r="F91">
-        <v>-3.9288044647043</v>
+        <v>-1.84827225469945</v>
       </c>
       <c r="G91">
-        <v>0.008297850392666707</v>
+        <v>-0.1938520297125828</v>
       </c>
       <c r="H91">
-        <v>-0.06512785439108862</v>
+        <v>0.1370220257141609</v>
       </c>
       <c r="I91">
-        <v>-4.27265894898774</v>
+        <v>-0.7218790657366543</v>
       </c>
     </row>
     <row r="92">
@@ -3371,19 +3371,19 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>-5.709161441287033</v>
+        <v>-1.084412226712152</v>
       </c>
       <c r="F92">
-        <v>-4.521392189570892</v>
+        <v>-1.594388747743923</v>
       </c>
       <c r="G92">
-        <v>0.0157987969327549</v>
+        <v>-0.1885213850698432</v>
       </c>
       <c r="H92">
-        <v>-0.07314101643043772</v>
+        <v>0.1311791655721604</v>
       </c>
       <c r="I92">
-        <v>-5.65181922178935</v>
+        <v>-1.027070007214469</v>
       </c>
     </row>
     <row r="93">
@@ -3401,19 +3401,19 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>-4.511742801627857</v>
+        <v>0.4170747931866421</v>
       </c>
       <c r="F93">
-        <v>-4.754460867826414</v>
+        <v>-0.9752930701796637</v>
       </c>
       <c r="G93">
-        <v>0.02731133546267887</v>
+        <v>-0.1764137236784419</v>
       </c>
       <c r="H93">
-        <v>-0.1226004291469041</v>
+        <v>0.08112462999421666</v>
       </c>
       <c r="I93">
-        <v>-4.416453707943632</v>
+        <v>0.5123638868708673</v>
       </c>
     </row>
   </sheetData>
